--- a/static/download/2014/RP1_ERT_FLTS_2014.xlsx
+++ b/static/download/2014/RP1_ERT_FLTS_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="IFR flights (ANSP)" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
   <si>
     <t>Data source</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -325,6 +328,12 @@
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -359,20 +368,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -401,7 +404,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -522,192 +526,208 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +744,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left/>
         <right/>
@@ -742,7 +762,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left/>
         <right/>
@@ -754,36 +774,39 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.71"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="9.86"/>
-    <col customWidth="1" min="6" max="6" width="11.71"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
+    <col customWidth="1" min="1" max="1" width="16.38"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="11.0"/>
+    <col customWidth="1" min="5" max="5" width="8.63"/>
+    <col customWidth="1" min="6" max="6" width="10.25"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -802,609 +825,611 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
         <v>365.0</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
         <v>365.0</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>9</v>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17">
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18">
         <v>550559.0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>1508.3808219178081</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>683345.0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>1872.1780821917807</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="19">
         <v>0.2411839603021657</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20">
+      <c r="B7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="21">
         <v>512876.0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>1405.1397260273973</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="21">
         <v>598230.0</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="21">
         <v>1638.986301369863</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>0.1664222931078856</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="21">
         <v>600163.0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>1644.282191780822</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>669663.0</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="21">
         <v>1834.6931506849314</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="22">
         <v>0.11580187382427765</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20">
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="21">
         <v>396879.0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>1087.3397260273973</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="21">
         <v>435890.0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="21">
         <v>1194.2191780821918</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="22">
         <v>0.09829444238672225</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="20">
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21">
         <v>277397.0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>759.9917808219178</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>304328.0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>833.7753424657534</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="22">
         <v>0.0970846836843946</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="20">
+      <c r="B11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="21">
         <v>623005.0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="21">
         <v>1706.86301369863</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="21">
         <v>677777.0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="21">
         <v>1856.9232876712329</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="22">
         <v>0.08791582732080805</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20">
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21">
         <v>446709.0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>1223.8602739726027</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="21">
         <v>477295.0</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>1307.6575342465753</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="22">
         <v>0.06846963011714569</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="20">
+      <c r="B13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21">
         <v>211611.0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>579.7561643835617</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="21">
         <v>224039.0</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="21">
         <v>613.8054794520548</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="22">
         <v>0.058730406264324575</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20">
+      <c r="B14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="21">
         <v>259303.0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>710.4191780821918</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="21">
         <v>273748.0</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="21">
         <v>749.9945205479452</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="22">
         <v>0.05570702999965271</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20">
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="21">
         <v>862964.0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="21">
         <v>2364.2849315068493</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="21">
         <v>903549.0</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="21">
         <v>2475.476712328767</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="22">
         <v>0.04702977180971635</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20">
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21">
         <v>182255.0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="21">
         <v>499.32876712328766</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="21">
         <v>190501.0</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="21">
         <v>521.9205479452055</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="22">
         <v>0.045244300567885753</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20">
+      <c r="B17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="21">
         <v>1618371.0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="21">
         <v>4433.893150684931</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <v>1681019.0</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="21">
         <v>4605.5315068493155</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="22">
         <v>0.03871053052730189</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="20">
+      <c r="B18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="21">
         <v>663809.0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="21">
         <v>1818.654794520548</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="21">
         <v>682563.0</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="21">
         <v>1870.035616438356</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="22">
         <v>0.028252102637957632</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20">
+      <c r="B19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="21">
         <v>522570.0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="21">
         <v>1431.6986301369864</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="21">
         <v>536948.0</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="21">
         <v>1471.0904109589042</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="22">
         <v>0.027514017260845458</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="20">
+      <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="21">
         <v>234339.0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="21">
         <v>642.0246575342466</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="21">
         <v>240571.0</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="21">
         <v>659.0986301369863</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="22">
         <v>0.026593951497616786</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="20">
+      <c r="B21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="21">
         <v>2169115.0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="21">
         <v>5942.780821917808</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="21">
         <v>2214690.0</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="21">
         <v>6067.643835616438</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="22">
         <v>0.02101087309801475</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="20">
+      <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="21">
         <v>1518903.0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="21">
         <v>4161.378082191781</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="21">
         <v>1550608.0</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="21">
         <v>4248.241095890411</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="22">
         <v>0.02087361734093629</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="20">
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="21">
         <v>225403.0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="21">
         <v>617.5424657534246</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="21">
         <v>229263.0</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="21">
         <v>628.1178082191781</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="22">
         <v>0.01712488298736048</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="20">
+      <c r="B24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="21">
         <v>613263.0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="21">
         <v>1680.172602739726</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="21">
         <v>622861.0</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="21">
         <v>1706.468493150685</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="22">
         <v>0.015650707771380334</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20">
+      <c r="B25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="21">
         <v>680018.0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="21">
         <v>1863.0630136986301</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="21">
         <v>690554.0</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="21">
         <v>1891.9287671232876</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="22">
         <v>0.015493707519506739</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="A26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21">
         <v>5431835.0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="21">
         <v>14881.739726027397</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="21">
         <v>5512253.0</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="21">
         <v>15102.063013698631</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="22">
         <v>0.014804941608130617</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="A27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="21">
         <v>1009915.0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="21">
         <v>2766.890410958904</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="21">
         <v>1016238.0</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="21">
         <v>2784.213698630137</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="22">
         <v>0.0062609229489611895</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="20">
+      <c r="B28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="21">
         <v>109348.0</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="21">
         <v>299.5835616438356</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="21">
         <v>101906.0</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="21">
         <v>279.1945205479452</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="22">
         <v>-0.06805794344661076</v>
       </c>
     </row>
@@ -1419,23 +1444,29 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="11.75"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1454,244 +1485,248 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>9</v>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>16</v>
+      <c r="E5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="30">
         <v>366.0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>9714049.0</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>26541.117486338797</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="30">
         <v>365.0</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>9032982.0</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>24747.89589041096</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>-0.06756390709060534</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="30">
         <v>365.0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>9053168.0</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>24803.2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>0.002234699460266887</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="30">
         <v>365.0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>9301162.0</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>25482.635616438358</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>0.027393062848275918</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="30">
         <v>366.0</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>9050691.0</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>24728.66393442623</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>-0.029587664846008166</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="A11" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="30">
         <v>365.0</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>8910640.0</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>24412.712328767124</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>-0.012776735795226313</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="A12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="33">
         <v>365.0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>9080883.0</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>24879.131506849317</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <v>0.019105586130738095</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId1" ref="F1"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="10.29"/>
-    <col customWidth="1" min="7" max="8" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="9.0"/>
+    <col customWidth="1" min="7" max="8" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1703,31 +1738,32 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
         <v>42034.0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
         <v>42004.0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
-      </c>
-      <c r="G2" s="8"/>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="39"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
@@ -1742,33 +1778,33 @@
     </row>
     <row r="4" ht="38.25" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="42">
         <v>2008.0</v>
@@ -1777,7 +1813,7 @@
         <v>39448.0</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="45">
         <v>31.0</v>
@@ -1792,7 +1828,7 @@
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="42">
         <v>2008.0</v>
@@ -1801,7 +1837,7 @@
         <v>39479.0</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="45">
         <v>29.0</v>
@@ -1816,7 +1852,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="42">
         <v>2008.0</v>
@@ -1825,7 +1861,7 @@
         <v>39508.0</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="45">
         <v>31.0</v>
@@ -1840,7 +1876,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="42">
         <v>2008.0</v>
@@ -1849,7 +1885,7 @@
         <v>39539.0</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="45">
         <v>30.0</v>
@@ -1864,7 +1900,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="42">
         <v>2008.0</v>
@@ -1873,7 +1909,7 @@
         <v>39569.0</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="45">
         <v>31.0</v>
@@ -1888,7 +1924,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="42">
         <v>2008.0</v>
@@ -1897,7 +1933,7 @@
         <v>39600.0</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="45">
         <v>30.0</v>
@@ -1912,7 +1948,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="42">
         <v>2008.0</v>
@@ -1921,7 +1957,7 @@
         <v>39630.0</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="45">
         <v>31.0</v>
@@ -1936,7 +1972,7 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="42">
         <v>2008.0</v>
@@ -1945,7 +1981,7 @@
         <v>39661.0</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="45">
         <v>31.0</v>
@@ -1960,7 +1996,7 @@
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="42">
         <v>2008.0</v>
@@ -1969,7 +2005,7 @@
         <v>39692.0</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="45">
         <v>30.0</v>
@@ -1984,7 +2020,7 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="42">
         <v>2008.0</v>
@@ -1993,7 +2029,7 @@
         <v>39722.0</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="45">
         <v>31.0</v>
@@ -2008,7 +2044,7 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="42">
         <v>2008.0</v>
@@ -2017,7 +2053,7 @@
         <v>39753.0</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="45">
         <v>30.0</v>
@@ -2032,7 +2068,7 @@
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="47">
         <v>2008.0</v>
@@ -2041,7 +2077,7 @@
         <v>39783.0</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" s="50">
         <v>31.0</v>
@@ -2052,11 +2088,11 @@
       <c r="G16" s="51">
         <v>21502.516129032258</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="52">
         <v>2009.0</v>
@@ -2065,7 +2101,7 @@
         <v>39814.0</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="55">
         <v>31.0</v>
@@ -2082,7 +2118,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="42">
         <v>2009.0</v>
@@ -2091,7 +2127,7 @@
         <v>39845.0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="45">
         <v>28.0</v>
@@ -2108,7 +2144,7 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="42">
         <v>2009.0</v>
@@ -2117,7 +2153,7 @@
         <v>39873.0</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="45">
         <v>31.0</v>
@@ -2134,7 +2170,7 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="42">
         <v>2009.0</v>
@@ -2143,7 +2179,7 @@
         <v>39904.0</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="45">
         <v>30.0</v>
@@ -2160,7 +2196,7 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="42">
         <v>2009.0</v>
@@ -2169,7 +2205,7 @@
         <v>39934.0</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="45">
         <v>31.0</v>
@@ -2186,7 +2222,7 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="42">
         <v>2009.0</v>
@@ -2195,7 +2231,7 @@
         <v>39965.0</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="45">
         <v>30.0</v>
@@ -2212,7 +2248,7 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="42">
         <v>2009.0</v>
@@ -2221,7 +2257,7 @@
         <v>39995.0</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="45">
         <v>31.0</v>
@@ -2238,7 +2274,7 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="42">
         <v>2009.0</v>
@@ -2247,7 +2283,7 @@
         <v>40026.0</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="45">
         <v>31.0</v>
@@ -2264,7 +2300,7 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="42">
         <v>2009.0</v>
@@ -2273,7 +2309,7 @@
         <v>40057.0</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="45">
         <v>30.0</v>
@@ -2290,7 +2326,7 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="42">
         <v>2009.0</v>
@@ -2299,7 +2335,7 @@
         <v>40087.0</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="45">
         <v>31.0</v>
@@ -2316,7 +2352,7 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="42">
         <v>2009.0</v>
@@ -2325,7 +2361,7 @@
         <v>40118.0</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="45">
         <v>30.0</v>
@@ -2342,7 +2378,7 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="47">
         <v>2009.0</v>
@@ -2351,7 +2387,7 @@
         <v>40148.0</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="50">
         <v>31.0</v>
@@ -2368,7 +2404,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="52">
         <v>2010.0</v>
@@ -2377,7 +2413,7 @@
         <v>40179.0</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="55">
         <v>31.0</v>
@@ -2394,7 +2430,7 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="42">
         <v>2010.0</v>
@@ -2403,7 +2439,7 @@
         <v>40210.0</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" s="45">
         <v>28.0</v>
@@ -2420,7 +2456,7 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="42">
         <v>2010.0</v>
@@ -2429,7 +2465,7 @@
         <v>40238.0</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="45">
         <v>31.0</v>
@@ -2446,7 +2482,7 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="42">
         <v>2010.0</v>
@@ -2455,7 +2491,7 @@
         <v>40269.0</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" s="45">
         <v>30.0</v>
@@ -2472,7 +2508,7 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="42">
         <v>2010.0</v>
@@ -2481,7 +2517,7 @@
         <v>40299.0</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="45">
         <v>31.0</v>
@@ -2498,7 +2534,7 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="42">
         <v>2010.0</v>
@@ -2507,7 +2543,7 @@
         <v>40330.0</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34" s="45">
         <v>30.0</v>
@@ -2524,7 +2560,7 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="42">
         <v>2010.0</v>
@@ -2533,7 +2569,7 @@
         <v>40360.0</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="45">
         <v>31.0</v>
@@ -2550,7 +2586,7 @@
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" s="42">
         <v>2010.0</v>
@@ -2559,7 +2595,7 @@
         <v>40391.0</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="45">
         <v>31.0</v>
@@ -2576,7 +2612,7 @@
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="42">
         <v>2010.0</v>
@@ -2585,7 +2621,7 @@
         <v>40422.0</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="45">
         <v>30.0</v>
@@ -2602,7 +2638,7 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" s="42">
         <v>2010.0</v>
@@ -2611,7 +2647,7 @@
         <v>40452.0</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="45">
         <v>31.0</v>
@@ -2628,7 +2664,7 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="42">
         <v>2010.0</v>
@@ -2637,7 +2673,7 @@
         <v>40483.0</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="45">
         <v>30.0</v>
@@ -2654,7 +2690,7 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="47">
         <v>2010.0</v>
@@ -2663,7 +2699,7 @@
         <v>40513.0</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="50">
         <v>31.0</v>
@@ -2680,7 +2716,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="52">
         <v>2011.0</v>
@@ -2689,7 +2725,7 @@
         <v>40544.0</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="55">
         <v>31.0</v>
@@ -2706,7 +2742,7 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="42">
         <v>2011.0</v>
@@ -2715,7 +2751,7 @@
         <v>40575.0</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" s="45">
         <v>28.0</v>
@@ -2732,7 +2768,7 @@
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="42">
         <v>2011.0</v>
@@ -2741,7 +2777,7 @@
         <v>40603.0</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="45">
         <v>31.0</v>
@@ -2758,7 +2794,7 @@
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="42">
         <v>2011.0</v>
@@ -2767,7 +2803,7 @@
         <v>40634.0</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="45">
         <v>30.0</v>
@@ -2784,7 +2820,7 @@
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="42">
         <v>2011.0</v>
@@ -2793,7 +2829,7 @@
         <v>40664.0</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="45">
         <v>31.0</v>
@@ -2810,7 +2846,7 @@
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="42">
         <v>2011.0</v>
@@ -2819,7 +2855,7 @@
         <v>40695.0</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="45">
         <v>30.0</v>
@@ -2836,7 +2872,7 @@
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="42">
         <v>2011.0</v>
@@ -2845,7 +2881,7 @@
         <v>40725.0</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="45">
         <v>31.0</v>
@@ -2862,7 +2898,7 @@
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="42">
         <v>2011.0</v>
@@ -2871,7 +2907,7 @@
         <v>40756.0</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="45">
         <v>31.0</v>
@@ -2888,7 +2924,7 @@
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="42">
         <v>2011.0</v>
@@ -2897,7 +2933,7 @@
         <v>40787.0</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="45">
         <v>30.0</v>
@@ -2914,7 +2950,7 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="42">
         <v>2011.0</v>
@@ -2923,7 +2959,7 @@
         <v>40817.0</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="45">
         <v>31.0</v>
@@ -2940,7 +2976,7 @@
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="42">
         <v>2011.0</v>
@@ -2949,7 +2985,7 @@
         <v>40848.0</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="45">
         <v>30.0</v>
@@ -2966,7 +3002,7 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="47">
         <v>2011.0</v>
@@ -2975,7 +3011,7 @@
         <v>40878.0</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="50">
         <v>31.0</v>
@@ -2992,7 +3028,7 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" s="52">
         <v>2012.0</v>
@@ -3001,7 +3037,7 @@
         <v>40909.0</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="55">
         <v>31.0</v>
@@ -3018,7 +3054,7 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="42">
         <v>2012.0</v>
@@ -3027,7 +3063,7 @@
         <v>40940.0</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="45">
         <v>29.0</v>
@@ -3044,7 +3080,7 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="42">
         <v>2012.0</v>
@@ -3053,7 +3089,7 @@
         <v>40969.0</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="45">
         <v>31.0</v>
@@ -3070,7 +3106,7 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="42">
         <v>2012.0</v>
@@ -3079,7 +3115,7 @@
         <v>41000.0</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="45">
         <v>30.0</v>
@@ -3096,7 +3132,7 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="42">
         <v>2012.0</v>
@@ -3105,7 +3141,7 @@
         <v>41030.0</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="45">
         <v>31.0</v>
@@ -3122,7 +3158,7 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="42">
         <v>2012.0</v>
@@ -3131,7 +3167,7 @@
         <v>41061.0</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="45">
         <v>30.0</v>
@@ -3148,7 +3184,7 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="42">
         <v>2012.0</v>
@@ -3157,7 +3193,7 @@
         <v>41091.0</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="45">
         <v>31.0</v>
@@ -3174,7 +3210,7 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="42">
         <v>2012.0</v>
@@ -3183,7 +3219,7 @@
         <v>41122.0</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="45">
         <v>31.0</v>
@@ -3200,7 +3236,7 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="42">
         <v>2012.0</v>
@@ -3209,7 +3245,7 @@
         <v>41153.0</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="45">
         <v>30.0</v>
@@ -3226,7 +3262,7 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="42">
         <v>2012.0</v>
@@ -3235,7 +3271,7 @@
         <v>41183.0</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="45">
         <v>31.0</v>
@@ -3252,7 +3288,7 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" s="42">
         <v>2012.0</v>
@@ -3261,7 +3297,7 @@
         <v>41214.0</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="45">
         <v>30.0</v>
@@ -3278,7 +3314,7 @@
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="47">
         <v>2012.0</v>
@@ -3287,7 +3323,7 @@
         <v>41244.0</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="50">
         <v>31.0</v>
@@ -3304,7 +3340,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="52">
         <v>2013.0</v>
@@ -3313,7 +3349,7 @@
         <v>41275.0</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" s="55">
         <v>31.0</v>
@@ -3330,7 +3366,7 @@
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="42">
         <v>2013.0</v>
@@ -3339,7 +3375,7 @@
         <v>41306.0</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E66" s="45">
         <v>28.0</v>
@@ -3356,7 +3392,7 @@
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="42">
         <v>2013.0</v>
@@ -3365,7 +3401,7 @@
         <v>41334.0</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" s="45">
         <v>31.0</v>
@@ -3382,7 +3418,7 @@
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="42">
         <v>2013.0</v>
@@ -3391,7 +3427,7 @@
         <v>41365.0</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E68" s="45">
         <v>30.0</v>
@@ -3408,7 +3444,7 @@
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="42">
         <v>2013.0</v>
@@ -3417,7 +3453,7 @@
         <v>41395.0</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69" s="45">
         <v>31.0</v>
@@ -3434,7 +3470,7 @@
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="42">
         <v>2013.0</v>
@@ -3443,7 +3479,7 @@
         <v>41426.0</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E70" s="45">
         <v>30.0</v>
@@ -3460,7 +3496,7 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="42">
         <v>2013.0</v>
@@ -3469,7 +3505,7 @@
         <v>41456.0</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E71" s="45">
         <v>31.0</v>
@@ -3486,7 +3522,7 @@
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" s="42">
         <v>2013.0</v>
@@ -3495,7 +3531,7 @@
         <v>41487.0</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="45">
         <v>31.0</v>
@@ -3512,7 +3548,7 @@
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" s="42">
         <v>2013.0</v>
@@ -3521,7 +3557,7 @@
         <v>41518.0</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E73" s="45">
         <v>30.0</v>
@@ -3538,7 +3574,7 @@
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" s="42">
         <v>2013.0</v>
@@ -3547,7 +3583,7 @@
         <v>41548.0</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="45">
         <v>31.0</v>
@@ -3564,7 +3600,7 @@
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="42">
         <v>2013.0</v>
@@ -3573,7 +3609,7 @@
         <v>41579.0</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="45">
         <v>30.0</v>
@@ -3590,7 +3626,7 @@
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76" s="47">
         <v>2013.0</v>
@@ -3599,7 +3635,7 @@
         <v>41609.0</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="50">
         <v>31.0</v>
@@ -3616,7 +3652,7 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="52">
         <v>2014.0</v>
@@ -3625,7 +3661,7 @@
         <v>41640.0</v>
       </c>
       <c r="D77" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E77" s="55">
         <v>31.0</v>
@@ -3642,7 +3678,7 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B78" s="42">
         <v>2014.0</v>
@@ -3651,7 +3687,7 @@
         <v>41671.0</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E78" s="45">
         <v>28.0</v>
@@ -3668,7 +3704,7 @@
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B79" s="42">
         <v>2014.0</v>
@@ -3677,7 +3713,7 @@
         <v>41699.0</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E79" s="45">
         <v>31.0</v>
@@ -3694,7 +3730,7 @@
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" s="42">
         <v>2014.0</v>
@@ -3703,7 +3739,7 @@
         <v>41730.0</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E80" s="45">
         <v>30.0</v>
@@ -3720,7 +3756,7 @@
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="42">
         <v>2014.0</v>
@@ -3729,7 +3765,7 @@
         <v>41760.0</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E81" s="45">
         <v>31.0</v>
@@ -3746,7 +3782,7 @@
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" s="42">
         <v>2014.0</v>
@@ -3755,7 +3791,7 @@
         <v>41791.0</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E82" s="45">
         <v>30.0</v>
@@ -3772,7 +3808,7 @@
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" s="42">
         <v>2014.0</v>
@@ -3781,7 +3817,7 @@
         <v>41821.0</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="45">
         <v>31.0</v>
@@ -3798,7 +3834,7 @@
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" s="42">
         <v>2014.0</v>
@@ -3807,7 +3843,7 @@
         <v>41852.0</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E84" s="45">
         <v>31.0</v>
@@ -3824,7 +3860,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B85" s="42">
         <v>2014.0</v>
@@ -3833,7 +3869,7 @@
         <v>41883.0</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E85" s="45">
         <v>30.0</v>
@@ -3850,7 +3886,7 @@
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B86" s="42">
         <v>2014.0</v>
@@ -3859,7 +3895,7 @@
         <v>41913.0</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E86" s="45">
         <v>31.0</v>
@@ -3876,7 +3912,7 @@
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" s="42">
         <v>2014.0</v>
@@ -3885,7 +3921,7 @@
         <v>41944.0</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" s="45">
         <v>30.0</v>
@@ -3902,7 +3938,7 @@
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" s="47">
         <v>2014.0</v>
@@ -3911,7 +3947,7 @@
         <v>41974.0</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" s="50">
         <v>31.0</v>
@@ -3928,38 +3964,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId1" ref="F1"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="63"/>
       <c r="F1" s="40"/>
@@ -3969,13 +4008,13 @@
         <v>41410.0</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="40"/>
